--- a/desain draft.xlsx
+++ b/desain draft.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dodo\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\selar\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F938F7A0-D286-476A-B3D5-7511FDA7F5FD}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B4B1BA48-3C5A-4667-8C15-509C418E9D55}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -687,7 +687,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -712,15 +712,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1005,8 +1006,8 @@
   <dimension ref="A2:L38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="Q32" sqref="Q32"/>
+      <pane ySplit="2" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -2117,7 +2118,7 @@
   <dimension ref="B2:P7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2164,7 +2165,7 @@
         <f>'1.1.1.'!E6</f>
         <v>siswa</v>
       </c>
-      <c r="H3" t="str">
+      <c r="H3" s="13" t="str">
         <f>D3&amp;E3&amp;F3&amp;G3</f>
         <v>t00_siswa</v>
       </c>
@@ -2185,7 +2186,7 @@
         <f>'1.1.3.'!E6</f>
         <v>absensi</v>
       </c>
-      <c r="P3" t="str">
+      <c r="P3" s="13" t="str">
         <f>L3&amp;M3&amp;N3&amp;O3</f>
         <v>t30_absensi</v>
       </c>
@@ -2208,7 +2209,7 @@
         <f>'1.1.3.'!E12</f>
         <v>talent</v>
       </c>
-      <c r="H4" t="str">
+      <c r="H4" s="13" t="str">
         <f t="shared" ref="H4:H7" si="0">D4&amp;E4&amp;F4&amp;G4</f>
         <v>t01_talent</v>
       </c>
@@ -2229,7 +2230,7 @@
         <f>'1.1.3.'!E15</f>
         <v>talent</v>
       </c>
-      <c r="P4" t="str">
+      <c r="P4" s="13" t="str">
         <f t="shared" ref="P4:P6" si="1">L4&amp;M4&amp;N4&amp;O4</f>
         <v>t31_talent</v>
       </c>
@@ -2252,7 +2253,7 @@
         <f>'1.2.1.'!E6</f>
         <v>kelompok</v>
       </c>
-      <c r="H5" t="str">
+      <c r="H5" s="13" t="str">
         <f t="shared" si="0"/>
         <v>t02_kelompok</v>
       </c>
@@ -2296,7 +2297,7 @@
         <f>'1.2.1.'!E9</f>
         <v>mapel</v>
       </c>
-      <c r="H6" t="str">
+      <c r="H6" s="13" t="str">
         <f t="shared" si="0"/>
         <v>t03_mapel</v>
       </c>
@@ -2412,15 +2413,15 @@
       <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
@@ -2432,7 +2433,7 @@
       <c r="E6" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="F6" s="12" t="str">
+      <c r="F6" s="11" t="str">
         <f>table!H3</f>
         <v>t00_siswa</v>
       </c>
@@ -2479,9 +2480,9 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="B2:S27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+    <sheetView topLeftCell="C1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2524,15 +2525,15 @@
       <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
@@ -2541,13 +2542,13 @@
       </c>
     </row>
     <row r="6" spans="2:19" x14ac:dyDescent="0.25">
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="F6" s="12" t="str">
+      <c r="F6" s="11" t="str">
         <f>table!P3</f>
         <v>t30_absensi</v>
       </c>
@@ -2600,7 +2601,7 @@
       <c r="E12" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F12" s="12" t="str">
+      <c r="F12" s="11" t="str">
         <f>table!H4</f>
         <v>t01_talent</v>
       </c>
@@ -2797,7 +2798,7 @@
       <c r="E20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="F20" s="12" t="str">
+      <c r="F20" s="11" t="str">
         <f>table!P4</f>
         <v>t31_talent</v>
       </c>
@@ -2918,7 +2919,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
+      <selection pane="bottomLeft" activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2961,15 +2962,15 @@
       <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
@@ -3087,9 +3088,9 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="B2:O23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A9" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3132,15 +3133,15 @@
       <c r="D5" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="3" t="s">
         <v>11</v>
       </c>
@@ -3532,15 +3533,15 @@
       <c r="D5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
@@ -3711,15 +3712,15 @@
       <c r="D5" s="4" t="s">
         <v>56</v>
       </c>
-      <c r="E5" s="10" t="s">
+      <c r="E5" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10" t="s">
+      <c r="F5" s="12"/>
+      <c r="G5" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="12"/>
       <c r="J5" s="4" t="s">
         <v>11</v>
       </c>
